--- a/public/import_templates/MachineTemplate.xlsx
+++ b/public/import_templates/MachineTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MES\BE_MES_BTDX\public\import_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45285A2D-0433-4D04-8CD2-EA236B622418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31F3C31-7452-42B8-87D1-B3F2E6B02778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1725" yWindow="3990" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,9 +43,6 @@
     <t>Kiểu loại</t>
   </si>
   <si>
-    <t>ma_so</t>
-  </si>
-  <si>
     <t>Mã số</t>
   </si>
   <si>
@@ -56,6 +53,9 @@
   </si>
   <si>
     <t>line_name</t>
+  </si>
+  <si>
+    <t>device_id</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A2:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,16 +461,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -487,10 +487,10 @@
         <v>6</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
